--- a/public/file/template-excel-payroll/template-import-payroll_V17.xlsx
+++ b/public/file/template-excel-payroll/template-import-payroll_V17.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\payroll\public\file\template-excel-payroll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAEEB7AC-FC85-42F5-AE93-B9C17781414C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84EACED1-051D-4BD7-91F5-9AD8E6361960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1C1D3C4D-2C0A-417F-9E29-D32469390088}"/>
   </bookViews>
@@ -66,9 +66,6 @@
     <t>MEAL ALLOWANCE/DAY</t>
   </si>
   <si>
-    <t>OVERTIME/HOUR</t>
-  </si>
-  <si>
     <t>TOTAL OVERTIME HOURS</t>
   </si>
   <si>
@@ -97,6 +94,9 @@
   </si>
   <si>
     <t>NAME</t>
+  </si>
+  <si>
+    <t>OVERTIME</t>
   </si>
 </sst>
 </file>
@@ -558,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A74985-BA75-4F29-9578-1CA84A0303AC}">
   <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,10 +595,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>10</v>
@@ -613,16 +613,16 @@
         <v>9</v>
       </c>
       <c r="I1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="K1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M1" s="9" t="s">
         <v>7</v>
@@ -634,22 +634,22 @@
         <v>3</v>
       </c>
       <c r="P1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="S1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" s="9" t="s">
-        <v>19</v>
       </c>
       <c r="V1" s="14" t="s">
         <v>4</v>
